--- a/results_v1/res_bus/q_mvar.xlsx
+++ b/results_v1/res_bus/q_mvar.xlsx
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-56.69482768936132</v>
+        <v>-58.93523389052132</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-61.24206566810608</v>
+        <v>-50.24029099941254</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-55.66609459326128</v>
+        <v>-62.91836929859994</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-61.33987896775332</v>
+        <v>-46.99785717992404</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-61.1076322761553</v>
+        <v>-67.12099916281034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-60.39534423442393</v>
+        <v>-45.0713979797884</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-57.00267696065907</v>
+        <v>-62.32819606225701</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-59.94517782966159</v>
+        <v>-47.10532184483583</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-49.47489891547752</v>
+        <v>-66.77017344425747</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-63.04747479757003</v>
+        <v>-44.28722218266975</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-57.32524473617559</v>
+        <v>-59.06546142873185</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-59.51370539354565</v>
+        <v>-48.58868887092427</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-48.86966264076659</v>
+        <v>-61.6128672761248</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63.48894926813435</v>
+        <v>-46.52436652688542</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-46.50183927753778</v>
+        <v>-55.93554153053287</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-66.63622710054339</v>
+        <v>-59.475221251259</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-45.65173895425664</v>
+        <v>-59.24245875572353</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-67.97352894502717</v>
+        <v>-49.72103004317819</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-46.63462491180258</v>
+        <v>-58.21909732508618</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-66.53017597600885</v>
+        <v>-49.64725959310439</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-46.4005914572142</v>
+        <v>-56.07461497589838</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-83.10943188514835</v>
+        <v>-56.50184048337442</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-44.63126247994524</v>
+        <v>-57.53185042766984</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-67.6038428783822</v>
+        <v>-49.56578311919463</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-46.07678744819759</v>
+        <v>-56.89856736903766</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-66.46133584296059</v>
+        <v>-54.01396685385265</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-49.78641399985531</v>
+        <v>-57.25076967218058</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-62.43759846332073</v>
+        <v>-53.26277803922807</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-45.30460049421981</v>
+        <v>-57.84361214733804</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-67.40915515456571</v>
+        <v>-51.4620797672211</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-50.71848339290364</v>
+        <v>-57.90760234169545</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-63.07888765284163</v>
+        <v>-49.54855109384812</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-51.03524227133994</v>
+        <v>-56.81190082302169</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-61.89842064978896</v>
+        <v>-52.53283158695609</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-44.97031528927459</v>
+        <v>-57.51155961238771</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-71.207177528966</v>
+        <v>-53.25322388218194</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-47.73312459343401</v>
+        <v>-58.93611369985967</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-65.2524791591749</v>
+        <v>-51.42679320360166</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-45.55660817154194</v>
+        <v>-56.70489945745771</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-67.90975076334571</v>
+        <v>-60.07186092745188</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-44.68947331630943</v>
+        <v>-57.21628198973633</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-72.77357294676048</v>
+        <v>-53.60247628796367</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-47.15998068123099</v>
+        <v>-57.83459535685915</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-67.17264338024381</v>
+        <v>-53.42340002086061</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-48.4109026178985</v>
+        <v>-58.40420001595737</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-64.63404372639643</v>
+        <v>-52.97419059976849</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-56.65246702874083</v>
+        <v>-58.20445412110439</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-62.36450011714849</v>
+        <v>-53.60374433395327</v>
       </c>
       <c r="G25">
         <v>0</v>
